--- a/data/trans_orig/Q02D_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R2-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7056</v>
+        <v>5949</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05004646351893223</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2338078772299935</v>
+        <v>0.1971318657190875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3313</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9453</v>
+        <v>8876</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06553654988856733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01828887330944288</v>
+        <v>0.01782291667965423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.186986488028253</v>
+        <v>0.1755578875728614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1022</v>
+        <v>1470</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10837</v>
+        <v>10820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05974652654378405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01265324763494042</v>
+        <v>0.01821047039877907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1342338059819011</v>
+        <v>0.134017720011367</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>6472</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2006</v>
+        <v>2759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11497</v>
+        <v>12651</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2144558914113836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0664696361121038</v>
+        <v>0.09141140509763032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3809821903987721</v>
+        <v>0.4192386077003107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>9211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4716</v>
+        <v>4762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15996</v>
+        <v>15489</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1822027419532595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09328720665073068</v>
+        <v>0.09418739051941079</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.31639988236338</v>
+        <v>0.3063788103224566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -857,19 +857,19 @@
         <v>15683</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9353</v>
+        <v>9807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24077</v>
+        <v>24403</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1942586132924534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1158558192320056</v>
+        <v>0.1214735501842513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2982239856984089</v>
+        <v>0.302265739790242</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>22195</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16291</v>
+        <v>16089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26872</v>
+        <v>26425</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7354976450696842</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5398432116522424</v>
+        <v>0.5331472974042414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8904695109854838</v>
+        <v>0.8756745386124654</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -907,19 +907,19 @@
         <v>38031</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30880</v>
+        <v>31615</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43058</v>
+        <v>42962</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7522607081581731</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.610813155964945</v>
+        <v>0.6253481375255128</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8516972748421808</v>
+        <v>0.8497920795930798</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -928,19 +928,19 @@
         <v>60226</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51189</v>
+        <v>51782</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67765</v>
+        <v>67628</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7459948601637625</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6340529801085913</v>
+        <v>0.6414016120468701</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8393668117278996</v>
+        <v>0.837673345032839</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>3269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1035</v>
+        <v>744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8607</v>
+        <v>8646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01974249425192521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006251315519771652</v>
+        <v>0.004493065289754884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05197167718553276</v>
+        <v>0.05220864875349639</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1053,19 +1053,19 @@
         <v>21654</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14522</v>
+        <v>13705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33423</v>
+        <v>32547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0715639507164692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04799156643796853</v>
+        <v>0.04529249289544508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1104590112566899</v>
+        <v>0.1075640057024303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -1074,19 +1074,19 @@
         <v>24924</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15170</v>
+        <v>16238</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36322</v>
+        <v>37182</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05323442943766794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0324014164679252</v>
+        <v>0.03468330532704126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07758071768802804</v>
+        <v>0.07941609456983492</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>14019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8368</v>
+        <v>8039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22991</v>
+        <v>22772</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08465339478046721</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05053217202402625</v>
+        <v>0.0485458846214321</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1388319303140592</v>
+        <v>0.137509114364484</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -1124,19 +1124,19 @@
         <v>65768</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51154</v>
+        <v>52335</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>80568</v>
+        <v>81676</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.217352599434745</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1690561570421436</v>
+        <v>0.1729580496023019</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2662643396772449</v>
+        <v>0.2699263074678955</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>75</v>
@@ -1145,19 +1145,19 @@
         <v>79787</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>64830</v>
+        <v>66428</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98222</v>
+        <v>99651</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1704161939121644</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1384703506229699</v>
+        <v>0.1418826421483226</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2097917202853666</v>
+        <v>0.2128445532537558</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>148312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138581</v>
+        <v>138503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154665</v>
+        <v>154932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8956041109676076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8368447909018628</v>
+        <v>0.8363699185225061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9339700389262533</v>
+        <v>0.9355826910379124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -1195,19 +1195,19 @@
         <v>215165</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>197916</v>
+        <v>199008</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230072</v>
+        <v>231239</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7110834498487858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6540802086787105</v>
+        <v>0.6576886471984634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7603487926227652</v>
+        <v>0.7642057885415385</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>346</v>
@@ -1216,19 +1216,19 @@
         <v>363477</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>343849</v>
+        <v>342887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380001</v>
+        <v>379057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7763493766501676</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7344276500580892</v>
+        <v>0.7323725923671444</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8116426631211247</v>
+        <v>0.8096282439723117</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6852</v>
+        <v>6558</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007394870242145998</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02538145951204674</v>
+        <v>0.02429319296281172</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1341,19 +1341,19 @@
         <v>12326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5896</v>
+        <v>5846</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21949</v>
+        <v>23130</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03184793462058447</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01523381911035608</v>
+        <v>0.01510377379772861</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05671229271439485</v>
+        <v>0.0597627126722231</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1362,19 +1362,19 @@
         <v>14322</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7648</v>
+        <v>7237</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23741</v>
+        <v>23914</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02179996215935052</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01164105235824289</v>
+        <v>0.01101517194995843</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03613694854971517</v>
+        <v>0.03639898399941219</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>15607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8829</v>
+        <v>8960</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26294</v>
+        <v>25025</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05781235111241098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03270397965312374</v>
+        <v>0.03318894574396639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0973988670738896</v>
+        <v>0.09269877203849826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1412,19 +1412,19 @@
         <v>45291</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32967</v>
+        <v>33130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59589</v>
+        <v>60594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1170226137789071</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08518097977316563</v>
+        <v>0.08560217182766605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1539674684608681</v>
+        <v>0.1565645575613867</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1433,19 +1433,19 @@
         <v>60898</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46698</v>
+        <v>48000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77445</v>
+        <v>77832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09269261245522949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07107947872089623</v>
+        <v>0.07306158961120769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1178800587175894</v>
+        <v>0.1184687567841128</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>252357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>241952</v>
+        <v>242277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>260093</v>
+        <v>259452</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.934792778645443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8962524611602334</v>
+        <v>0.8974564612249585</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9634515176467797</v>
+        <v>0.9610775634859442</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -1483,19 +1483,19 @@
         <v>329408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314085</v>
+        <v>313206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>343061</v>
+        <v>343319</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8511294516005085</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8115380344523233</v>
+        <v>0.8092667082688695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8864070008321298</v>
+        <v>0.887073125422246</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>564</v>
@@ -1504,19 +1504,19 @@
         <v>581764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>563911</v>
+        <v>563653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597576</v>
+        <v>596197</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.88550742538542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8583330685459869</v>
+        <v>0.857939630671519</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9095745071272888</v>
+        <v>0.9074752037434222</v>
       </c>
     </row>
     <row r="15">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6690</v>
+        <v>6440</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01782078914886251</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05580793692395349</v>
+        <v>0.05372387379940068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8039</v>
+        <v>6822</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00931256912502924</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03504561334855322</v>
+        <v>0.02974193153274333</v>
       </c>
     </row>
     <row r="17">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10653</v>
+        <v>9998</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02494052736862811</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09727199545561713</v>
+        <v>0.09129260107213615</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1692,19 +1692,19 @@
         <v>16631</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9834</v>
+        <v>9699</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26309</v>
+        <v>25666</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1387419089026465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08203780057209883</v>
+        <v>0.08091413193922437</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2194832050726117</v>
+        <v>0.2141134478970212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1713,19 +1713,19 @@
         <v>19362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11290</v>
+        <v>11610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30042</v>
+        <v>30029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08440945566392853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0492191586665691</v>
+        <v>0.05061153788194812</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1309651443041219</v>
+        <v>0.130909886427849</v>
       </c>
     </row>
     <row r="18">
@@ -1742,7 +1742,7 @@
         <v>106785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98863</v>
+        <v>99518</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>109516</v>
@@ -1751,7 +1751,7 @@
         <v>0.9750594726313719</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.902728004544383</v>
+        <v>0.9087073989278638</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1763,19 +1763,19 @@
         <v>101102</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92171</v>
+        <v>90831</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>108563</v>
+        <v>108524</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.843437301948491</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7689326507772808</v>
+        <v>0.7577503548158353</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9056823932872142</v>
+        <v>0.9053581382846837</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -1784,19 +1784,19 @@
         <v>207887</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>196777</v>
+        <v>196902</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>216277</v>
+        <v>216282</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9062779752110423</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8578437817786057</v>
+        <v>0.8583856825000566</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9428508913166918</v>
+        <v>0.942872599004807</v>
       </c>
     </row>
     <row r="19">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4520</v>
+        <v>4564</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04761591199853718</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2404498722423077</v>
+        <v>0.242796013174638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8410</v>
+        <v>8466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03724212026291708</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1233966106155586</v>
+        <v>0.1242151987633772</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1930,19 +1930,19 @@
         <v>3433</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9615</v>
+        <v>9220</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03948492523279087</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01039380299132805</v>
+        <v>0.01043037255063729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1105820238005353</v>
+        <v>0.1060361412214584</v>
       </c>
     </row>
     <row r="21">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6135</v>
+        <v>6216</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1048573541263196</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3263732148278696</v>
+        <v>0.3306318459676743</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1980,19 +1980,19 @@
         <v>6904</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2977</v>
+        <v>3199</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12928</v>
+        <v>13047</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1013023545351915</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04368397841984033</v>
+        <v>0.04694641734459885</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1896990910971576</v>
+        <v>0.1914431604759026</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -2001,19 +2001,19 @@
         <v>8875</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4615</v>
+        <v>4062</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15677</v>
+        <v>15462</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1020709424299633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05307608625297189</v>
+        <v>0.04671207077859724</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.180301226545068</v>
+        <v>0.1778262749969907</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>15933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11805</v>
+        <v>11673</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17961</v>
+        <v>17893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8475267338751432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6279496361598116</v>
+        <v>0.6209211096940881</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9554108137965367</v>
+        <v>0.9517898081214055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2051,19 +2051,19 @@
         <v>58710</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51746</v>
+        <v>51395</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63344</v>
+        <v>63079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8614555252018914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7592801474422498</v>
+        <v>0.7541160756513191</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9294534252339879</v>
+        <v>0.9255706892532821</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -2072,19 +2072,19 @@
         <v>74643</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66366</v>
+        <v>67270</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80025</v>
+        <v>80380</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8584441323372458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7632625216011228</v>
+        <v>0.7736581990414606</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9203415975601135</v>
+        <v>0.9244249105505893</v>
       </c>
     </row>
     <row r="23">
@@ -2189,19 +2189,19 @@
         <v>5467</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2704</v>
+        <v>2660</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11034</v>
+        <v>10587</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1191647281693314</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05894142002021232</v>
+        <v>0.05797439019707881</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2404957644903605</v>
+        <v>0.230762407307069</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2210,19 +2210,19 @@
         <v>5467</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1840</v>
+        <v>2661</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10862</v>
+        <v>11025</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09240906245707164</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03109796761598126</v>
+        <v>0.04497543774785694</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1835969187946369</v>
+        <v>0.1863584530870485</v>
       </c>
     </row>
     <row r="25">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4914</v>
+        <v>5316</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1351678638038885</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3699716631048769</v>
+        <v>0.4002474119796768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3567</v>
+        <v>4426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01900635759862858</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07773774209973192</v>
+        <v>0.09647907250157511</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2281,19 +2281,19 @@
         <v>2667</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6778</v>
+        <v>7197</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04508771972991401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01381591158350431</v>
+        <v>0.01370523674692327</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1145719506186744</v>
+        <v>0.1216549826502913</v>
       </c>
     </row>
     <row r="26">
@@ -2310,7 +2310,7 @@
         <v>11488</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8369</v>
+        <v>7967</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>13283</v>
@@ -2319,7 +2319,7 @@
         <v>0.8648321361961114</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6300283368951233</v>
+        <v>0.5997525880203274</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2331,19 +2331,19 @@
         <v>39540</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34086</v>
+        <v>34957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>43151</v>
+        <v>43145</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.86182891423204</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7429484821262737</v>
+        <v>0.7619433250747031</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9405333878996615</v>
+        <v>0.9404088784164947</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>55</v>
@@ -2352,19 +2352,19 @@
         <v>51027</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44577</v>
+        <v>45502</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54818</v>
+        <v>55552</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8625032178130143</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7534740737560894</v>
+        <v>0.7691034350310921</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9265709763238132</v>
+        <v>0.9389871863795181</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>2902</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6571</v>
+        <v>6873</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2031040738667851</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06316034918728118</v>
+        <v>0.06128955744615349</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4599459076003177</v>
+        <v>0.481051394067548</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7422</v>
+        <v>7469</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1091740339097855</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3213568396415573</v>
+        <v>0.3233838769157991</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -2498,19 +2498,19 @@
         <v>5423</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2043</v>
+        <v>1953</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10960</v>
+        <v>11687</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1450720707315883</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05465880666518477</v>
+        <v>0.05225408298954783</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2931767795443891</v>
+        <v>0.3126415028796974</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>5574</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2183</v>
+        <v>2199</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10197</v>
+        <v>11246</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2413325851474345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09450142084684165</v>
+        <v>0.09521248132869074</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4415167978458725</v>
+        <v>0.4869526537750671</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2561,19 +2561,19 @@
         <v>5574</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11998</v>
+        <v>11744</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1491004724826311</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05864051529344555</v>
+        <v>0.05872200131956332</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3209493370889615</v>
+        <v>0.3141678235375724</v>
       </c>
     </row>
     <row r="30">
@@ -2590,19 +2590,19 @@
         <v>11385</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7716</v>
+        <v>7414</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13385</v>
+        <v>13411</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.7968959261332149</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5400540923996821</v>
+        <v>0.518948605932452</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9368396508127188</v>
+        <v>0.9387104425538465</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2611,19 +2611,19 @@
         <v>15000</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9219</v>
+        <v>9237</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19540</v>
+        <v>19499</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.64949338094278</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3991671844371836</v>
+        <v>0.3999492040515076</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8460672481127691</v>
+        <v>0.8442799680845461</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>25</v>
@@ -2632,19 +2632,19 @@
         <v>26385</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19825</v>
+        <v>20182</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31719</v>
+        <v>31373</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7058274567857806</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5303417160525249</v>
+        <v>0.5398918591784343</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.84850209949217</v>
+        <v>0.8392483392338799</v>
       </c>
     </row>
     <row r="31">
@@ -2736,19 +2736,19 @@
         <v>10573</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5375</v>
+        <v>5340</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19073</v>
+        <v>18934</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01700825399198888</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008646045663105962</v>
+        <v>0.008590296928139561</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03068279950719993</v>
+        <v>0.03045944287669898</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>45</v>
@@ -2757,19 +2757,19 @@
         <v>49956</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36612</v>
+        <v>37910</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65746</v>
+        <v>64738</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05009847472234107</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03671637061760159</v>
+        <v>0.0380175555272225</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06593263629744277</v>
+        <v>0.06492209774478441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>55</v>
@@ -2778,19 +2778,19 @@
         <v>60529</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>44682</v>
+        <v>45525</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77488</v>
+        <v>77996</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03739164064101837</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02760230341380234</v>
+        <v>0.02812298885809222</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04786814145442439</v>
+        <v>0.04818209306034788</v>
       </c>
     </row>
     <row r="33">
@@ -2807,19 +2807,19 @@
         <v>42595</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>31717</v>
+        <v>31190</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>57844</v>
+        <v>57582</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.06852289849745966</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0510237497569116</v>
+        <v>0.05017449916687127</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09305364422752574</v>
+        <v>0.09263241913508159</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>140</v>
@@ -2828,19 +2828,19 @@
         <v>150251</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>129686</v>
+        <v>129466</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>174801</v>
+        <v>173574</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1506781460756626</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1300549322742648</v>
+        <v>0.1298340025070558</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1752981302185422</v>
+        <v>0.174068368478912</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>180</v>
@@ -2849,19 +2849,19 @@
         <v>192846</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>166544</v>
+        <v>166774</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>220264</v>
+        <v>221044</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1191300609663765</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1028824177181045</v>
+        <v>0.1030241749191223</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1360673038045701</v>
+        <v>0.1365496950315941</v>
       </c>
     </row>
     <row r="34">
@@ -2878,19 +2878,19 @@
         <v>568454</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>552346</v>
+        <v>552485</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>581075</v>
+        <v>580449</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9144688475105515</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8885567094124864</v>
+        <v>0.8887790665100262</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9347716174885692</v>
+        <v>0.933764860218686</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>773</v>
@@ -2899,19 +2899,19 @@
         <v>796955</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>770165</v>
+        <v>770911</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>819567</v>
+        <v>821498</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7992233792019963</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7723568543905481</v>
+        <v>0.7731053555151441</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8218999061915163</v>
+        <v>0.8238365066312404</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1322</v>
@@ -2920,19 +2920,19 @@
         <v>1365409</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1336171</v>
+        <v>1332417</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1395624</v>
+        <v>1393957</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.8434782983926051</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8254163907998381</v>
+        <v>0.8230971703339086</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8621437200701898</v>
+        <v>0.8611137763232748</v>
       </c>
     </row>
     <row r="35">
@@ -3314,19 +3314,19 @@
         <v>4765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1796</v>
+        <v>1865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9653</v>
+        <v>9739</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1170191874919666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04409797167141103</v>
+        <v>0.04580635907737432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2370839886339001</v>
+        <v>0.2391793696759629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3335,19 +3335,19 @@
         <v>30859</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22026</v>
+        <v>22273</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40568</v>
+        <v>40349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3125996815837921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2231218470082642</v>
+        <v>0.2256207737264101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4109459088145749</v>
+        <v>0.4087295857212085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -3356,19 +3356,19 @@
         <v>35624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26857</v>
+        <v>26375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46828</v>
+        <v>46084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2554868897700875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1926124793064003</v>
+        <v>0.1891533636675847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3358390061008319</v>
+        <v>0.3305034140548254</v>
       </c>
     </row>
     <row r="6">
@@ -3385,19 +3385,19 @@
         <v>35952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31064</v>
+        <v>30978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38921</v>
+        <v>38852</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8829808125080334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7629160113660998</v>
+        <v>0.7608206303240371</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9559020283285889</v>
+        <v>0.9541936409226257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -3406,19 +3406,19 @@
         <v>67859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58150</v>
+        <v>58369</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76692</v>
+        <v>76445</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.687400318416208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5890540911854251</v>
+        <v>0.5912704142787913</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7768781529917358</v>
+        <v>0.7743792262735898</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>101</v>
@@ -3427,19 +3427,19 @@
         <v>103811</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92607</v>
+        <v>93351</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>112578</v>
+        <v>113060</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7445131102299125</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6641609938991682</v>
+        <v>0.6694965859451746</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8073875206935998</v>
+        <v>0.810846636332415</v>
       </c>
     </row>
     <row r="7">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7343</v>
+        <v>6985</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009306794652593807</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03475141569117737</v>
+        <v>0.03305584313773386</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4816</v>
+        <v>4807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002500979541715988</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01243234025985678</v>
+        <v>0.01240889767489758</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -3576,16 +3576,16 @@
         <v>935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8068</v>
+        <v>8732</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00490317653612324</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001561288754652867</v>
+        <v>0.001561993265746811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01347657916918673</v>
+        <v>0.01458650009457541</v>
       </c>
     </row>
     <row r="9">
@@ -3602,19 +3602,19 @@
         <v>32647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22896</v>
+        <v>23670</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43408</v>
+        <v>43715</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1544997140408409</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.108353886881729</v>
+        <v>0.1120169050435998</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2054280112305143</v>
+        <v>0.2068805969881037</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -3623,19 +3623,19 @@
         <v>140285</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>121348</v>
+        <v>122619</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>159477</v>
+        <v>161897</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3621574793679109</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3132709227656018</v>
+        <v>0.3165517533985932</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4117054139211462</v>
+        <v>0.4179510853299388</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>162</v>
@@ -3644,19 +3644,19 @@
         <v>172931</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>150572</v>
+        <v>149886</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>195720</v>
+        <v>195473</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2888620912906298</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2515130314802334</v>
+        <v>0.250368282444055</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3269276835161081</v>
+        <v>0.3265155619390359</v>
       </c>
     </row>
     <row r="10">
@@ -3673,19 +3673,19 @@
         <v>176693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165871</v>
+        <v>165294</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186598</v>
+        <v>186362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8361934913065653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7849822858095069</v>
+        <v>0.7822473972859938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8830701131506655</v>
+        <v>0.881952647284687</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -3694,19 +3694,19 @@
         <v>246105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226760</v>
+        <v>224600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264324</v>
+        <v>263982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6353415410903731</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5854018149805674</v>
+        <v>0.5798249621446445</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6823774390292028</v>
+        <v>0.6814936453035186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>403</v>
@@ -3715,19 +3715,19 @@
         <v>422797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>400055</v>
+        <v>400349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>445066</v>
+        <v>446020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7062347321732469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6682469593152776</v>
+        <v>0.6687377389669653</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7434317418552939</v>
+        <v>0.7450259295313655</v>
       </c>
     </row>
     <row r="11">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9296</v>
+        <v>9220</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003256414509417639</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01622008873936229</v>
+        <v>0.01608768424868095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10802</v>
+        <v>9393</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001898521891878653</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01098912310037327</v>
+        <v>0.009555640540692632</v>
       </c>
     </row>
     <row r="13">
@@ -3882,19 +3882,19 @@
         <v>51640</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39322</v>
+        <v>39703</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67671</v>
+        <v>66181</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1259793822379018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09592791891172646</v>
+        <v>0.09685874612612888</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1650884907693174</v>
+        <v>0.1614523836930134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -3903,19 +3903,19 @@
         <v>112832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>92626</v>
+        <v>94218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132347</v>
+        <v>134258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1968772761476878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1616203694009948</v>
+        <v>0.1643991496434934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2309284440310666</v>
+        <v>0.2342637740819187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -3924,19 +3924,19 @@
         <v>164472</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140282</v>
+        <v>141455</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186507</v>
+        <v>189001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.167313556154198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1427060753659468</v>
+        <v>0.1438994171147435</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1897300477994154</v>
+        <v>0.1922661424026017</v>
       </c>
     </row>
     <row r="14">
@@ -3953,19 +3953,19 @@
         <v>358268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342237</v>
+        <v>343727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370586</v>
+        <v>370205</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8740206177620982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8349115092306826</v>
+        <v>0.8385476163069866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9040720810882735</v>
+        <v>0.9031412538738711</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>435</v>
@@ -3974,19 +3974,19 @@
         <v>458410</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>438968</v>
+        <v>437625</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478252</v>
+        <v>477828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7998663093428945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7659422764889481</v>
+        <v>0.7635987717982565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8344888814228648</v>
+        <v>0.8337489883874504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>777</v>
@@ -3995,19 +3995,19 @@
         <v>816677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>793679</v>
+        <v>792223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>840559</v>
+        <v>840411</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8307879219539234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8073921025760188</v>
+        <v>0.8059116957432065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.855082761548972</v>
+        <v>0.8549319014006168</v>
       </c>
     </row>
     <row r="15">
@@ -4146,19 +4146,19 @@
         <v>24036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15579</v>
+        <v>14576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36407</v>
+        <v>34967</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1071824155295435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06946987274321527</v>
+        <v>0.06499878318495801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1623468254430852</v>
+        <v>0.1559255683753677</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -4167,19 +4167,19 @@
         <v>39614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27679</v>
+        <v>28437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52853</v>
+        <v>53337</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1519874228199732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1061945496761659</v>
+        <v>0.1091038808457504</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2027826872788006</v>
+        <v>0.2046404401273682</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -4188,19 +4188,19 @@
         <v>63650</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48956</v>
+        <v>48172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79225</v>
+        <v>80633</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1312660149149415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1009615804388526</v>
+        <v>0.09934531087190253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1633862992621939</v>
+        <v>0.1662899121036489</v>
       </c>
     </row>
     <row r="18">
@@ -4217,19 +4217,19 @@
         <v>200218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>187847</v>
+        <v>189287</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>208675</v>
+        <v>209678</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8928175844704566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8376531745569148</v>
+        <v>0.8440744316246324</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9305301272567847</v>
+        <v>0.9350012168150422</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>194</v>
@@ -4238,19 +4238,19 @@
         <v>221026</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>207787</v>
+        <v>207303</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>232961</v>
+        <v>232203</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8480125771800268</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.797217312721199</v>
+        <v>0.7953595598726318</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.893805450323834</v>
+        <v>0.8908961191542496</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>376</v>
@@ -4259,19 +4259,19 @@
         <v>421244</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>405669</v>
+        <v>404261</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>435938</v>
+        <v>436722</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8687339850850585</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8366137007378062</v>
+        <v>0.8337100878963511</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8990384195611475</v>
+        <v>0.9006546891280977</v>
       </c>
     </row>
     <row r="19">
@@ -4410,19 +4410,19 @@
         <v>9266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4932</v>
+        <v>4591</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16115</v>
+        <v>15865</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1885420798818369</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1003502051599474</v>
+        <v>0.09340859586602569</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3279001864316219</v>
+        <v>0.3228067381511129</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -4431,19 +4431,19 @@
         <v>21056</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13277</v>
+        <v>13556</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30525</v>
+        <v>30458</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2116623484613162</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1334633733082261</v>
+        <v>0.1362763885246669</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.306853507805051</v>
+        <v>0.3061843286038375</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -4452,19 +4452,19 @@
         <v>30322</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21848</v>
+        <v>21248</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>41135</v>
+        <v>40744</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.20401690975346</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1470045879263614</v>
+        <v>0.1429633464372871</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2767728211987404</v>
+        <v>0.2741436204542452</v>
       </c>
     </row>
     <row r="22">
@@ -4481,19 +4481,19 @@
         <v>39881</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33032</v>
+        <v>33282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44215</v>
+        <v>44556</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8114579201181631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6720998135683787</v>
+        <v>0.677193261848887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8996497948400527</v>
+        <v>0.9065914041339742</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -4502,19 +4502,19 @@
         <v>78421</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68952</v>
+        <v>69019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86200</v>
+        <v>85921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7883376515386837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6931464921949491</v>
+        <v>0.6938156713961627</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.866536626691774</v>
+        <v>0.8637236114753332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -4523,19 +4523,19 @@
         <v>118302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107489</v>
+        <v>107880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126776</v>
+        <v>127376</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7959830902465399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7232271788012595</v>
+        <v>0.7258563795457549</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8529954120736386</v>
+        <v>0.8570366535627133</v>
       </c>
     </row>
     <row r="23">
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3718</v>
+        <v>3772</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04028320773956739</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1748007969018759</v>
+        <v>0.1773234541147647</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5161</v>
+        <v>4398</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01268126033684942</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07638173771272382</v>
+        <v>0.06509437958782731</v>
       </c>
     </row>
     <row r="25">
@@ -4690,19 +4690,19 @@
         <v>6118</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11262</v>
+        <v>11274</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2876284067057154</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1015190026485712</v>
+        <v>0.1012323631433331</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5294575452286169</v>
+        <v>0.5300320983653121</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4711,19 +4711,19 @@
         <v>13024</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7080</v>
+        <v>7067</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19729</v>
+        <v>19659</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2813082989827047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1529348234735077</v>
+        <v>0.1526481151065401</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4261428034566013</v>
+        <v>0.4246260003510282</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -4732,19 +4732,19 @@
         <v>19142</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12702</v>
+        <v>11933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28245</v>
+        <v>27062</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2832978856092361</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1879838941557616</v>
+        <v>0.1766047927218584</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4180287372037731</v>
+        <v>0.4005077581186442</v>
       </c>
     </row>
     <row r="26">
@@ -4761,19 +4761,19 @@
         <v>14295</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9096</v>
+        <v>9060</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18713</v>
+        <v>18251</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6720883855547172</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4276593195589984</v>
+        <v>0.4259604273591089</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8797938314480294</v>
+        <v>0.8580408401011318</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -4782,19 +4782,19 @@
         <v>33273</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26568</v>
+        <v>26638</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39217</v>
+        <v>39230</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7186917010172954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5738571965433986</v>
+        <v>0.5753739996489717</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8470651765264923</v>
+        <v>0.8473518848934599</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>48</v>
@@ -4803,19 +4803,19 @@
         <v>47569</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38548</v>
+        <v>39554</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54320</v>
+        <v>54831</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7040208540539145</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5705046985460531</v>
+        <v>0.5853936052223339</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8039308246252892</v>
+        <v>0.8114903866263596</v>
       </c>
     </row>
     <row r="27">
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5724</v>
+        <v>4909</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07218567340461315</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3579478493796553</v>
+        <v>0.3069607121265726</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -4975,19 +4975,19 @@
         <v>10910</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6515</v>
+        <v>5658</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17599</v>
+        <v>17768</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2649316199897544</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.158215153959339</v>
+        <v>0.1374048321198276</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4273843927715576</v>
+        <v>0.4314873451662897</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -4996,19 +4996,19 @@
         <v>12064</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6365</v>
+        <v>6566</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18834</v>
+        <v>19474</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2110169695651866</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1113291741094199</v>
+        <v>0.114843321705941</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3294293302409503</v>
+        <v>0.3406272698367902</v>
       </c>
     </row>
     <row r="30">
@@ -5025,7 +5025,7 @@
         <v>14838</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10268</v>
+        <v>11083</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>15992</v>
@@ -5034,7 +5034,7 @@
         <v>0.9278143265953869</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6420521506203438</v>
+        <v>0.6930392878734274</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -5046,19 +5046,19 @@
         <v>30269</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23580</v>
+        <v>23411</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34664</v>
+        <v>35521</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7350683800102457</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5726156072284424</v>
+        <v>0.5685126548337102</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.841784846040661</v>
+        <v>0.8625951678801721</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -5067,19 +5067,19 @@
         <v>45107</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>38337</v>
+        <v>37697</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50806</v>
+        <v>50605</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7889830304348133</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6705706697590498</v>
+        <v>0.6593727301632099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8886708258905801</v>
+        <v>0.885156678294059</v>
       </c>
     </row>
     <row r="31">
@@ -5171,19 +5171,19 @@
         <v>2823</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7749</v>
+        <v>7348</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002902981236648674</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0008817959048136188</v>
+        <v>0.000870766672680199</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007967509154130524</v>
+        <v>0.007554893005643715</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11015</v>
+        <v>11197</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.001881532933156799</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007310442545703327</v>
+        <v>0.007431185319937984</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -5213,19 +5213,19 @@
         <v>5658</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1877</v>
+        <v>1900</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14118</v>
+        <v>13039</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002282221047482923</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0007571023304493666</v>
+        <v>0.0007662892711385655</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.005694277024825043</v>
+        <v>0.005258902822769631</v>
       </c>
     </row>
     <row r="33">
@@ -5242,19 +5242,19 @@
         <v>129626</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>108093</v>
+        <v>108418</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>152608</v>
+        <v>151973</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1332786859129319</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1111385035696009</v>
+        <v>0.1114729602580835</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1569077986946813</v>
+        <v>0.1562555954784756</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>341</v>
@@ -5263,19 +5263,19 @@
         <v>368579</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>334690</v>
+        <v>332624</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>402322</v>
+        <v>403333</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2446139139715547</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2221231856865319</v>
+        <v>0.2207522292084227</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2670081302055077</v>
+        <v>0.2676791437000922</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>465</v>
@@ -5284,19 +5284,19 @@
         <v>498205</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>459068</v>
+        <v>458564</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>542969</v>
+        <v>536846</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2009399439464692</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.185154978149256</v>
+        <v>0.184951712802076</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2189947807205609</v>
+        <v>0.2165251290878553</v>
       </c>
     </row>
     <row r="34">
@@ -5313,19 +5313,19 @@
         <v>840145</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>818795</v>
+        <v>818172</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>861693</v>
+        <v>862933</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8638183328504194</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8418667926828221</v>
+        <v>0.8412262698378625</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8859737077621977</v>
+        <v>0.8872484422855288</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1055</v>
@@ -5334,19 +5334,19 @@
         <v>1135363</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1100943</v>
+        <v>1100947</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1168388</v>
+        <v>1171487</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7535045530952885</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7306606401253997</v>
+        <v>0.7306634833468637</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7754218475401248</v>
+        <v>0.7774787114524477</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1849</v>
@@ -5355,19 +5355,19 @@
         <v>1975508</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1931930</v>
+        <v>1936871</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2016247</v>
+        <v>2015674</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7967778350060479</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7792015014484871</v>
+        <v>0.7811946879821439</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8132090207168394</v>
+        <v>0.8129778150999486</v>
       </c>
     </row>
     <row r="35">
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4820</v>
+        <v>5389</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02812140661894774</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1245771721775626</v>
+        <v>0.1393010156203768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5723,19 +5723,19 @@
         <v>13417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7775</v>
+        <v>7176</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21460</v>
+        <v>20846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1507683093264833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08736776122136129</v>
+        <v>0.08064229389523181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2411462965470572</v>
+        <v>0.2342464416880414</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5744,19 +5744,19 @@
         <v>14505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7965</v>
+        <v>8312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22655</v>
+        <v>23176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1136041009905752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06238315187375493</v>
+        <v>0.06509769138517209</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1774364893579913</v>
+        <v>0.1815181339464008</v>
       </c>
     </row>
     <row r="5">
@@ -5773,19 +5773,19 @@
         <v>10457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5306</v>
+        <v>5395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16616</v>
+        <v>16783</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2702758105788315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1371453221991814</v>
+        <v>0.1394520512951677</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4294635682738096</v>
+        <v>0.4338013081534212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5794,19 +5794,19 @@
         <v>23254</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15625</v>
+        <v>16255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31144</v>
+        <v>32117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2613066314100787</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1755752711416139</v>
+        <v>0.1826551238024576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3499630334447675</v>
+        <v>0.360897428058339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -5815,19 +5815,19 @@
         <v>33711</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23443</v>
+        <v>25014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44827</v>
+        <v>44404</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2640244533515302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1836066399657287</v>
+        <v>0.1959087801474542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3510853755859769</v>
+        <v>0.3477765139312292</v>
       </c>
     </row>
     <row r="6">
@@ -5844,19 +5844,19 @@
         <v>27144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21038</v>
+        <v>20425</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32533</v>
+        <v>32359</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7016027828022208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.543771362438578</v>
+        <v>0.5279300722336528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8408948523958625</v>
+        <v>0.8363906122707528</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -5865,19 +5865,19 @@
         <v>52320</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43883</v>
+        <v>43220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60619</v>
+        <v>61322</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.587925059263438</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4931199463758226</v>
+        <v>0.4856675043000827</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6811758227533482</v>
+        <v>0.6890858885595716</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -5886,19 +5886,19 @@
         <v>79464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68629</v>
+        <v>68207</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90927</v>
+        <v>89855</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6223714456578945</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5375083429022877</v>
+        <v>0.5342032757508557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7121489533811495</v>
+        <v>0.7037493838629481</v>
       </c>
     </row>
     <row r="7">
@@ -5990,19 +5990,19 @@
         <v>12426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6573</v>
+        <v>6930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19984</v>
+        <v>20410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07588027150891363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04013886983082705</v>
+        <v>0.04231747722108624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1220334783685768</v>
+        <v>0.1246399495681242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -6011,19 +6011,19 @@
         <v>35244</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24397</v>
+        <v>25057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46911</v>
+        <v>47445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1257141404472992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08702379739851726</v>
+        <v>0.08937719780350058</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1673302651018428</v>
+        <v>0.1692343105129019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -6032,19 +6032,19 @@
         <v>47670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36043</v>
+        <v>36165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61302</v>
+        <v>63076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.107338935252966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08115949475092964</v>
+        <v>0.08143380784677376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1380354003003126</v>
+        <v>0.1420285500394193</v>
       </c>
     </row>
     <row r="9">
@@ -6061,19 +6061,19 @@
         <v>32937</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22966</v>
+        <v>23995</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44215</v>
+        <v>44239</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2011334414258596</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.140244571190526</v>
+        <v>0.1465323318766625</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2700099962495402</v>
+        <v>0.2701520794152637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>80</v>
@@ -6082,19 +6082,19 @@
         <v>80242</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>66100</v>
+        <v>66280</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>95901</v>
+        <v>95527</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2862193350952263</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2357758574736922</v>
+        <v>0.2364189282517866</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3420759503356318</v>
+        <v>0.3407414324066954</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>112</v>
@@ -6103,19 +6103,19 @@
         <v>113178</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>96232</v>
+        <v>96510</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>131353</v>
+        <v>133622</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2548456772070359</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2166869126365514</v>
+        <v>0.2173126978770876</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2957700957595101</v>
+        <v>0.3008795318970918</v>
       </c>
     </row>
     <row r="10">
@@ -6132,19 +6132,19 @@
         <v>118393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106056</v>
+        <v>106989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129612</v>
+        <v>128311</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7229862870652267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6476507109517169</v>
+        <v>0.6533488961292353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7915024914708045</v>
+        <v>0.7835567397049173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -6153,19 +6153,19 @@
         <v>164865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148915</v>
+        <v>148951</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181312</v>
+        <v>181014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5880665244574745</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5311720440308281</v>
+        <v>0.5313000759044416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6467338605306359</v>
+        <v>0.6456687869470922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -6174,19 +6174,19 @@
         <v>283258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262889</v>
+        <v>261605</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301499</v>
+        <v>302376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6378153875399981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5919514009876665</v>
+        <v>0.589060436800308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6788896539736956</v>
+        <v>0.6808653632188177</v>
       </c>
     </row>
     <row r="11">
@@ -6278,19 +6278,19 @@
         <v>11616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5881</v>
+        <v>5938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20108</v>
+        <v>20780</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03812169393406972</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01930130458795979</v>
+        <v>0.01948804082280753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06599201203549891</v>
+        <v>0.06819578204214574</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -6299,19 +6299,19 @@
         <v>34197</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23750</v>
+        <v>23166</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45477</v>
+        <v>46488</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08677172731578787</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06026252691628867</v>
+        <v>0.05878167991118769</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1153911557028289</v>
+        <v>0.1179571364286764</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -6320,19 +6320,19 @@
         <v>45813</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33950</v>
+        <v>33757</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60850</v>
+        <v>60024</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.065558627832477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04858146950402296</v>
+        <v>0.04830523110215396</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08707611987073889</v>
+        <v>0.08589354864614832</v>
       </c>
     </row>
     <row r="13">
@@ -6349,19 +6349,19 @@
         <v>67432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53932</v>
+        <v>53339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83443</v>
+        <v>83366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2213014660029296</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1769953344813899</v>
+        <v>0.1750511790418459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2738455041969866</v>
+        <v>0.2735938690334478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -6370,19 +6370,19 @@
         <v>93390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78039</v>
+        <v>78172</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109254</v>
+        <v>111762</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2369657477183743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1980149107058726</v>
+        <v>0.1983526920328035</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2772179512267399</v>
+        <v>0.2835827881966269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -6391,19 +6391,19 @@
         <v>160823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138832</v>
+        <v>140447</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182993</v>
+        <v>182935</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2301355783789797</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1986673388257328</v>
+        <v>0.2009776184577146</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2618605899170396</v>
+        <v>0.2617780313902101</v>
       </c>
     </row>
     <row r="14">
@@ -6420,19 +6420,19 @@
         <v>225660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>209886</v>
+        <v>208368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>241353</v>
+        <v>240416</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7405768400630007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6888088197689163</v>
+        <v>0.6838288564835129</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7920790428573524</v>
+        <v>0.7890061177660022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>266</v>
@@ -6441,19 +6441,19 @@
         <v>266520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249196</v>
+        <v>247606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>284653</v>
+        <v>283422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6762625249658378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6323041000874529</v>
+        <v>0.6282703389459152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7222710682360851</v>
+        <v>0.7191474647032854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>484</v>
@@ -6462,19 +6462,19 @@
         <v>492181</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>466850</v>
+        <v>470658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>515584</v>
+        <v>515333</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7043057937885433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6680573320981654</v>
+        <v>0.6735065713355881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7377955245292354</v>
+        <v>0.7374361460215839</v>
       </c>
     </row>
     <row r="15">
@@ -6566,19 +6566,19 @@
         <v>5673</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2163</v>
+        <v>2178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12709</v>
+        <v>12250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03942053494008436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01502942104489945</v>
+        <v>0.01513260868999835</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08831103340319052</v>
+        <v>0.08512020395027396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6587,19 +6587,19 @@
         <v>8834</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4390</v>
+        <v>4344</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16403</v>
+        <v>16498</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05114240501283366</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0254155873855691</v>
+        <v>0.02514691513760361</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0949631326571556</v>
+        <v>0.09551322193525758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6608,19 +6608,19 @@
         <v>14507</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7988</v>
+        <v>8809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24215</v>
+        <v>24785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04581484801872699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02522744998729486</v>
+        <v>0.0278181973846494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07647228385025123</v>
+        <v>0.07827214468280909</v>
       </c>
     </row>
     <row r="17">
@@ -6637,19 +6637,19 @@
         <v>14603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8324</v>
+        <v>8240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23177</v>
+        <v>22987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1014670711571769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05784225034321597</v>
+        <v>0.05725641328806214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1610457861648361</v>
+        <v>0.1597223528553146</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -6658,19 +6658,19 @@
         <v>36454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26744</v>
+        <v>26844</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48805</v>
+        <v>48453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2110440855905081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1548283568855943</v>
+        <v>0.1554077679154109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2825463120824342</v>
+        <v>0.2805090134447231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -6679,19 +6679,19 @@
         <v>51057</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38505</v>
+        <v>38542</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65051</v>
+        <v>65536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1612416405868928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1216021289029471</v>
+        <v>0.1217188730024621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2054371982448281</v>
+        <v>0.2069661300199578</v>
       </c>
     </row>
     <row r="18">
@@ -6708,19 +6708,19 @@
         <v>123640</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>113802</v>
+        <v>114591</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>131511</v>
+        <v>131300</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8591123939027387</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7907525361314943</v>
+        <v>0.796238732642693</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9138048865118923</v>
+        <v>0.9123401371085735</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>119</v>
@@ -6729,19 +6729,19 @@
         <v>127445</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116064</v>
+        <v>114230</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>138198</v>
+        <v>138165</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7378135093966582</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6719281851554486</v>
+        <v>0.6613068452362482</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8000651859909966</v>
+        <v>0.7998786701383912</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>231</v>
@@ -6750,19 +6750,19 @@
         <v>251085</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>236148</v>
+        <v>233834</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>264609</v>
+        <v>264838</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7929435113943802</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7457707750458995</v>
+        <v>0.7384647667725687</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8356531311644884</v>
+        <v>0.8363782098809581</v>
       </c>
     </row>
     <row r="19">
@@ -6867,19 +6867,19 @@
         <v>9095</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4436</v>
+        <v>4474</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15826</v>
+        <v>16105</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1573663181216934</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07675562450271725</v>
+        <v>0.07741897401755649</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2738459927163034</v>
+        <v>0.2786733329387302</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -6888,19 +6888,19 @@
         <v>9095</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3691</v>
+        <v>4436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16203</v>
+        <v>16106</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09374942171248615</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03804577378132489</v>
+        <v>0.04572709267710456</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1670214420416662</v>
+        <v>0.1660236430492754</v>
       </c>
     </row>
     <row r="21">
@@ -6917,19 +6917,19 @@
         <v>4901</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1195</v>
+        <v>1705</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11181</v>
+        <v>11180</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1249744586653333</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03046630959960561</v>
+        <v>0.04348099300225863</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2851132996263905</v>
+        <v>0.2850850340732512</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -6938,19 +6938,19 @@
         <v>7579</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3223</v>
+        <v>3116</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14411</v>
+        <v>13146</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1311374377611212</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05577385749587875</v>
+        <v>0.05391527436873256</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2493632491466702</v>
+        <v>0.227465209215865</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -6959,19 +6959,19 @@
         <v>12480</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7212</v>
+        <v>6451</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20769</v>
+        <v>20172</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1286459922765439</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07434541043004637</v>
+        <v>0.0665039516407237</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2140983282943624</v>
+        <v>0.2079353956196991</v>
       </c>
     </row>
     <row r="22">
@@ -6988,19 +6988,19 @@
         <v>34316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28036</v>
+        <v>28037</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38022</v>
+        <v>37512</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8750255413346667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.714886700373609</v>
+        <v>0.7149149659267489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9695336904003944</v>
+        <v>0.9565190069977414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -7009,19 +7009,19 @@
         <v>41119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32347</v>
+        <v>33633</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47634</v>
+        <v>47960</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7114962441171854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5597191468116584</v>
+        <v>0.5819648349235829</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8242250291225965</v>
+        <v>0.8298703907574503</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -7030,19 +7030,19 @@
         <v>75435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66209</v>
+        <v>65834</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83365</v>
+        <v>83393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7776045860109699</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.68250795283256</v>
+        <v>0.6786339336326891</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8593560659220453</v>
+        <v>0.8596469601322063</v>
       </c>
     </row>
     <row r="23">
@@ -7137,16 +7137,16 @@
         <v>912</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7004</v>
+        <v>7071</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1452774634297004</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0449913125837328</v>
+        <v>0.04496743018060286</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3454441275691268</v>
+        <v>0.3487510165996076</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7155,19 +7155,19 @@
         <v>3205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7973</v>
+        <v>8078</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09946219895410448</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03041377897192319</v>
+        <v>0.03126262147858726</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2474246115374986</v>
+        <v>0.2506954757384774</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -7176,19 +7176,19 @@
         <v>6151</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2731</v>
+        <v>2018</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12277</v>
+        <v>12003</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1171564710659949</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05202333170363124</v>
+        <v>0.03844064093312464</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.233840644856342</v>
+        <v>0.228625748510029</v>
       </c>
     </row>
     <row r="25">
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4045</v>
+        <v>4063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04815033174965638</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1994828526578444</v>
+        <v>0.2004000387024397</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -7226,19 +7226,19 @@
         <v>2876</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7666</v>
+        <v>8088</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08924840627774905</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02713594997672343</v>
+        <v>0.02758041898324939</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2378971790533927</v>
+        <v>0.2509990828681876</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -7247,19 +7247,19 @@
         <v>3852</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1730</v>
+        <v>975</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9012</v>
+        <v>8730</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0733759558554192</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03294335544586813</v>
+        <v>0.01856716698998813</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1716460555391857</v>
+        <v>0.1662913030219363</v>
       </c>
     </row>
     <row r="26">
@@ -7276,19 +7276,19 @@
         <v>16354</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12138</v>
+        <v>12178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19308</v>
+        <v>19315</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8065722048206433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5986537408996212</v>
+        <v>0.6005992440750083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9522776905053633</v>
+        <v>0.9525804178358684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -7297,19 +7297,19 @@
         <v>26143</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21104</v>
+        <v>20501</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30192</v>
+        <v>29510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8112893947681464</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6549058041953479</v>
+        <v>0.6362034920447012</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9369270758863001</v>
+        <v>0.9157899110568788</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -7318,19 +7318,19 @@
         <v>42498</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>35939</v>
+        <v>35461</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46903</v>
+        <v>47576</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8094675730785859</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.684548232613324</v>
+        <v>0.6754318811951641</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8933676504048045</v>
+        <v>0.90618481537249</v>
       </c>
     </row>
     <row r="27">
@@ -7435,19 +7435,19 @@
         <v>5927</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1303</v>
+        <v>1358</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13902</v>
+        <v>13659</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.139460857850047</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03065161228162407</v>
+        <v>0.03196141902374481</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3271025961117305</v>
+        <v>0.3213908198080052</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -7456,19 +7456,19 @@
         <v>5927</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1413</v>
+        <v>2087</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13428</v>
+        <v>13705</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1112898830328899</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02652530230456202</v>
+        <v>0.03918234839219976</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2521251624703782</v>
+        <v>0.2573286523884458</v>
       </c>
     </row>
     <row r="29">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6195</v>
+        <v>5873</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.20206472817784</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5758275162209919</v>
+        <v>0.5459533065380122</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -7506,19 +7506,19 @@
         <v>9913</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4192</v>
+        <v>4039</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18683</v>
+        <v>17940</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.233245004927262</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09864341084628675</v>
+        <v>0.0950468389766045</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.439605142936873</v>
+        <v>0.4221061003499827</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -7527,19 +7527,19 @@
         <v>12087</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6350</v>
+        <v>6075</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20956</v>
+        <v>20384</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2269466155107533</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1192339269846273</v>
+        <v>0.1140608676215359</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3934782393798774</v>
+        <v>0.3827290982153926</v>
       </c>
     </row>
     <row r="30">
@@ -7556,7 +7556,7 @@
         <v>8584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4563</v>
+        <v>4885</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>10758</v>
@@ -7565,7 +7565,7 @@
         <v>0.79793527182216</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4241724837790068</v>
+        <v>0.4540466934619878</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -7577,19 +7577,19 @@
         <v>26660</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17734</v>
+        <v>18377</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33770</v>
+        <v>33913</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.627294137222691</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4172715660223797</v>
+        <v>0.432388345506111</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7945977282511254</v>
+        <v>0.7979646945006728</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>29</v>
@@ -7598,19 +7598,19 @@
         <v>35245</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>25774</v>
+        <v>26861</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42338</v>
+        <v>43247</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6617635014563568</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4839332824838718</v>
+        <v>0.5043480256116729</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7949490643500661</v>
+        <v>0.8120092185910468</v>
       </c>
     </row>
     <row r="31">
@@ -7702,19 +7702,19 @@
         <v>33749</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23772</v>
+        <v>22797</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46940</v>
+        <v>46396</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04678741649205276</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03295573276080894</v>
+        <v>0.0316041388614272</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06507543206804348</v>
+        <v>0.06432096322304294</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>106</v>
@@ -7723,19 +7723,19 @@
         <v>109919</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>92420</v>
+        <v>89956</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>134262</v>
+        <v>129879</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1028532741204149</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08647852923290802</v>
+        <v>0.08417305082695294</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1256315125834086</v>
+        <v>0.1215302400010904</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>138</v>
@@ -7744,19 +7744,19 @@
         <v>143668</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>122347</v>
+        <v>120501</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>168219</v>
+        <v>168124</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08026055684421203</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06834972448228495</v>
+        <v>0.06731843301774652</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09397610325646469</v>
+        <v>0.09392282644341349</v>
       </c>
     </row>
     <row r="33">
@@ -7773,19 +7773,19 @@
         <v>133480</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>114005</v>
+        <v>113459</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>157648</v>
+        <v>157883</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1850493678887205</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.15805048906169</v>
+        <v>0.1572930511131347</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2185545931172944</v>
+        <v>0.2188803446138191</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>249</v>
@@ -7794,19 +7794,19 @@
         <v>253708</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>227094</v>
+        <v>226176</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>283571</v>
+        <v>281989</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2373986428072218</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2124957432226658</v>
+        <v>0.2116362439856689</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2653418967311512</v>
+        <v>0.2638614878087482</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>375</v>
@@ -7815,19 +7815,19 @@
         <v>387188</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>353915</v>
+        <v>353339</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>422530</v>
+        <v>425276</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2163035874940999</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1977154936080095</v>
+        <v>0.1973940367893309</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2360478229103545</v>
+        <v>0.2375817217244287</v>
       </c>
     </row>
     <row r="34">
@@ -7844,19 +7844,19 @@
         <v>554091</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>528457</v>
+        <v>527244</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>575840</v>
+        <v>574430</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7681632156192267</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7326243348054727</v>
+        <v>0.7309426515607215</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7983137543631605</v>
+        <v>0.7963592603598273</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>684</v>
@@ -7865,19 +7865,19 @@
         <v>705073</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>671349</v>
+        <v>671802</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>733837</v>
+        <v>735957</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6597480830723633</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6281924516202821</v>
+        <v>0.6286157651145065</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6866633445758615</v>
+        <v>0.6886470139699518</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1209</v>
@@ -7886,19 +7886,19 @@
         <v>1259164</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1219933</v>
+        <v>1221133</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1294983</v>
+        <v>1297658</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.703435855661688</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6815191239247702</v>
+        <v>0.68218969817304</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7234463077203298</v>
+        <v>0.7249407768844675</v>
       </c>
     </row>
     <row r="35">
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5413</v>
+        <v>6765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05169029936397734</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2373065630630711</v>
+        <v>0.2965519231336258</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6684</v>
+        <v>5326</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03354056740231625</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1901276059896205</v>
+        <v>0.1514902698638137</v>
       </c>
     </row>
     <row r="5">
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6592</v>
+        <v>7076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1015403342143222</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5340230725275936</v>
+        <v>0.5732262533926705</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -8317,19 +8317,19 @@
         <v>4165</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>960</v>
+        <v>1051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10827</v>
+        <v>11380</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1825849153273368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04208173806749103</v>
+        <v>0.04607096971085281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4746481347190589</v>
+        <v>0.4988974420119462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -8338,19 +8338,19 @@
         <v>5418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1266</v>
+        <v>1616</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12610</v>
+        <v>13049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1541281750444317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03601148385783868</v>
+        <v>0.04596302167990395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3586835369501695</v>
+        <v>0.3711929517027843</v>
       </c>
     </row>
     <row r="6">
@@ -8367,7 +8367,7 @@
         <v>11091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5714</v>
+        <v>5268</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>12344</v>
@@ -8376,7 +8376,7 @@
         <v>0.8984596657856778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4628857226462019</v>
+        <v>0.4267737466073295</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -8388,19 +8388,19 @@
         <v>17467</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10641</v>
+        <v>10464</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21577</v>
+        <v>21180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7657247853086859</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4665036006901948</v>
+        <v>0.4587248520552095</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9459117276136493</v>
+        <v>0.9285144520035138</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -8409,19 +8409,19 @@
         <v>28558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21264</v>
+        <v>20407</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32931</v>
+        <v>32743</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.812331257553252</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6048736757627901</v>
+        <v>0.5804761794505505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9367309833159366</v>
+        <v>0.9313977581480586</v>
       </c>
     </row>
     <row r="7">
@@ -8513,19 +8513,19 @@
         <v>4379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10383</v>
+        <v>11524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1261920345710156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03143796529312053</v>
+        <v>0.03110743572416178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2992002803811066</v>
+        <v>0.3320514375239014</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -8534,19 +8534,19 @@
         <v>6960</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2391</v>
+        <v>2296</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14433</v>
+        <v>14526</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08037171117487894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02761368859662082</v>
+        <v>0.0265184636790147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1666719412210809</v>
+        <v>0.1677465194986494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -8555,19 +8555,19 @@
         <v>11339</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5068</v>
+        <v>5241</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21820</v>
+        <v>21007</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09348090196413505</v>
+        <v>0.09348090196413507</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04178145884954892</v>
+        <v>0.04321039881969904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1798851812993</v>
+        <v>0.173179455083161</v>
       </c>
     </row>
     <row r="9">
@@ -8584,19 +8584,19 @@
         <v>8098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3068</v>
+        <v>3438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14284</v>
+        <v>14728</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2333383083572372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08840863500298771</v>
+        <v>0.09907888019070786</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4115832766006553</v>
+        <v>0.4243846078451103</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -8605,19 +8605,19 @@
         <v>28348</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20439</v>
+        <v>19584</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38007</v>
+        <v>37822</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3273638772279314</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2360237902736916</v>
+        <v>0.2261486181090494</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4388957934314585</v>
+        <v>0.4367617533192522</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -8626,19 +8626,19 @@
         <v>36446</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26650</v>
+        <v>26844</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>47136</v>
+        <v>47450</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3004631696371553</v>
+        <v>0.3004631696371552</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2197009887575881</v>
+        <v>0.2213023553135187</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3885864150926647</v>
+        <v>0.391177881510673</v>
       </c>
     </row>
     <row r="10">
@@ -8655,19 +8655,19 @@
         <v>22227</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15567</v>
+        <v>15130</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28223</v>
+        <v>27961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6404696570717472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4485551088614488</v>
+        <v>0.4359733577965926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8132563989137513</v>
+        <v>0.8056909783734593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -8676,19 +8676,19 @@
         <v>51288</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42071</v>
+        <v>41140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60176</v>
+        <v>60989</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5922644115971896</v>
+        <v>0.5922644115971895</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4858292097285981</v>
+        <v>0.4750847664260505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6949050599915387</v>
+        <v>0.7042883386003079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -8697,19 +8697,19 @@
         <v>73515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61057</v>
+        <v>60656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83665</v>
+        <v>84466</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6060559283987096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5033580647770605</v>
+        <v>0.5000466722257114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6897401735522792</v>
+        <v>0.6963396360021219</v>
       </c>
     </row>
     <row r="11">
@@ -8801,19 +8801,19 @@
         <v>3022</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8141</v>
+        <v>8498</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03371582622593429</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01011390345140493</v>
+        <v>0.00983316648217898</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09083473683615412</v>
+        <v>0.09481628187298631</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -8822,19 +8822,19 @@
         <v>3901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1453</v>
+        <v>1491</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8624</v>
+        <v>8458</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03142455721778368</v>
+        <v>0.03142455721778367</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01170235908587461</v>
+        <v>0.01200982455350547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06946876691493223</v>
+        <v>0.06813301505555311</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -8843,19 +8843,19 @@
         <v>6923</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2700</v>
+        <v>3369</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13043</v>
+        <v>13392</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03238519715616673</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01263192661766578</v>
+        <v>0.01575856992917314</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06101595435844217</v>
+        <v>0.06264784212924543</v>
       </c>
     </row>
     <row r="13">
@@ -8872,19 +8872,19 @@
         <v>7603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3432</v>
+        <v>3680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14242</v>
+        <v>14369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08483342974408874</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03829013392289236</v>
+        <v>0.04106088309478699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1589000834473925</v>
+        <v>0.1603211965456793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -8893,19 +8893,19 @@
         <v>26889</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19556</v>
+        <v>18729</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35699</v>
+        <v>35403</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.216593450595566</v>
+        <v>0.2165934505955659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1575266668708467</v>
+        <v>0.1508667971230117</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2875578732426577</v>
+        <v>0.2851762818195806</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -8914,19 +8914,19 @@
         <v>34492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25471</v>
+        <v>25089</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45333</v>
+        <v>44703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1613516008337709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.119149340562885</v>
+        <v>0.1173631113652758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2120649720991131</v>
+        <v>0.209116997652154</v>
       </c>
     </row>
     <row r="14">
@@ -8943,19 +8943,19 @@
         <v>79001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72121</v>
+        <v>71527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83848</v>
+        <v>83897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8814507440299769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8046850577308748</v>
+        <v>0.7980580463154405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9355317226585826</v>
+        <v>0.9360809653001197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -8964,19 +8964,19 @@
         <v>93355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85175</v>
+        <v>84125</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101604</v>
+        <v>101839</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7519819921866504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6860893592812904</v>
+        <v>0.6776331587546154</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8184340782977668</v>
+        <v>0.8203214543375293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>187</v>
@@ -8985,19 +8985,19 @@
         <v>172356</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160732</v>
+        <v>161098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181937</v>
+        <v>182108</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8062632020100625</v>
+        <v>0.8062632020100623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7518868049587514</v>
+        <v>0.7536017151285476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8510814472656386</v>
+        <v>0.8518821597074824</v>
       </c>
     </row>
     <row r="15">
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4723</v>
+        <v>5783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02250513490813022</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09387858653081316</v>
+        <v>0.1149513943236197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -9110,19 +9110,19 @@
         <v>2963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7175</v>
+        <v>7297</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04404923267366317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01050436351047723</v>
+        <v>0.01055403792104796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1066838095993709</v>
+        <v>0.1084861461622342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -9131,19 +9131,19 @@
         <v>4095</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1524</v>
+        <v>1412</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9876</v>
+        <v>9624</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03483047642760382</v>
+        <v>0.03483047642760383</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01296699704381202</v>
+        <v>0.012012793218977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08400219459791004</v>
+        <v>0.08186258596916381</v>
       </c>
     </row>
     <row r="17">
@@ -9160,19 +9160,19 @@
         <v>2508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6536</v>
+        <v>6560</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04985083039218742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01572612423096765</v>
+        <v>0.01583309416975757</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1299267414894441</v>
+        <v>0.1304030967000581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -9181,19 +9181,19 @@
         <v>6912</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3506</v>
+        <v>3625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11708</v>
+        <v>12654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1027651093222979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05212026293413539</v>
+        <v>0.05389025355198118</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1740745062968145</v>
+        <v>0.1881409667499785</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -9202,19 +9202,19 @@
         <v>9420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5322</v>
+        <v>5208</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15437</v>
+        <v>16100</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08012299895399601</v>
+        <v>0.08012299895399602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04527271196529525</v>
+        <v>0.04430270049034359</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1313098281418145</v>
+        <v>0.1369488153375376</v>
       </c>
     </row>
     <row r="18">
@@ -9231,19 +9231,19 @@
         <v>46666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>41554</v>
+        <v>41756</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49175</v>
+        <v>49391</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9276440346996825</v>
+        <v>0.9276440346996824</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8260327480090111</v>
+        <v>0.83004112236501</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9775127698717199</v>
+        <v>0.9818103684259435</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -9252,19 +9252,19 @@
         <v>57384</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52093</v>
+        <v>52146</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61468</v>
+        <v>61776</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8531856580040389</v>
+        <v>0.8531856580040388</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7745180968400073</v>
+        <v>0.7753145862528488</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9139069997335677</v>
+        <v>0.9184983669404057</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>122</v>
@@ -9273,19 +9273,19 @@
         <v>104050</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>97107</v>
+        <v>96828</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>109383</v>
+        <v>109028</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8850465246184002</v>
+        <v>0.8850465246184003</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.825989869349411</v>
+        <v>0.8236206584085954</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9304152714472027</v>
+        <v>0.9273932758393002</v>
       </c>
     </row>
     <row r="19">
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3731</v>
+        <v>3568</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1770687021920565</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5628777352427594</v>
+        <v>0.5381678585413426</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -9461,16 +9461,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3735</v>
+        <v>3629</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09512085749723129</v>
+        <v>0.09512085749723127</v>
       </c>
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3026176493682508</v>
+        <v>0.2940618012298876</v>
       </c>
     </row>
     <row r="22">
@@ -9500,7 +9500,7 @@
         <v>5455</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2898</v>
+        <v>3061</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>6629</v>
@@ -9509,7 +9509,7 @@
         <v>0.8229312978079435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4371222647572408</v>
+        <v>0.4618321414586545</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -9521,7 +9521,7 @@
         <v>11167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8606</v>
+        <v>8712</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>12341</v>
@@ -9530,7 +9530,7 @@
         <v>0.9048791425027687</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6973823506317492</v>
+        <v>0.7059381987701125</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -10057,19 +10057,19 @@
         <v>8533</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3837</v>
+        <v>3436</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17459</v>
+        <v>17194</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04391767478005828</v>
+        <v>0.04391767478005827</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01974932069148804</v>
+        <v>0.01768625699519846</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0898574223901214</v>
+        <v>0.08848877305782256</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -10078,19 +10078,19 @@
         <v>15003</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8492</v>
+        <v>8386</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25284</v>
+        <v>25999</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04780490547651343</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02705806184882593</v>
+        <v>0.02672102148487447</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08056411779657506</v>
+        <v>0.08284421748032682</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -10099,19 +10099,19 @@
         <v>23536</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15026</v>
+        <v>14533</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34869</v>
+        <v>34775</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.04631850036105852</v>
+        <v>0.04631850036105851</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02957043469407707</v>
+        <v>0.02860092669780339</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06862160593500231</v>
+        <v>0.06843549701311333</v>
       </c>
     </row>
     <row r="33">
@@ -10128,19 +10128,19 @@
         <v>19462</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>12333</v>
+        <v>12186</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>31239</v>
+        <v>29914</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1001644284596449</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06347409780000399</v>
+        <v>0.06271830731559232</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1607777089989164</v>
+        <v>0.1539581855288241</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>74</v>
@@ -10149,19 +10149,19 @@
         <v>67488</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>54300</v>
+        <v>54417</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>84216</v>
+        <v>82989</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2150429473871673</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1730198134906261</v>
+        <v>0.1733942125346375</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2683463700299828</v>
+        <v>0.2644351166411036</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>92</v>
@@ -10170,19 +10170,19 @@
         <v>86950</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>71128</v>
+        <v>69536</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>104575</v>
+        <v>104553</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1711155266798063</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1399781382658989</v>
+        <v>0.1368452914648179</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2058015072343335</v>
+        <v>0.2057579458829266</v>
       </c>
     </row>
     <row r="34">
@@ -10199,19 +10199,19 @@
         <v>166307</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>153298</v>
+        <v>154574</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>174744</v>
+        <v>175496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8559178967602967</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.788966446064601</v>
+        <v>0.7955366852083635</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8993409094311992</v>
+        <v>0.903213900286048</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>277</v>
@@ -10220,19 +10220,19 @@
         <v>231344</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>216130</v>
+        <v>214403</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>246109</v>
+        <v>245920</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7371521471363193</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.688673919947157</v>
+        <v>0.6831715592026826</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7841972371427665</v>
+        <v>0.7835978202494517</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>417</v>
@@ -10241,19 +10241,19 @@
         <v>397651</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>379014</v>
+        <v>377336</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>417003</v>
+        <v>416230</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.7825659729591351</v>
+        <v>0.782565972959135</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7458894708587922</v>
+        <v>0.742586320054286</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8206515409510025</v>
+        <v>0.8191303291637452</v>
       </c>
     </row>
     <row r="35">
